--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADAEAFA4-94D2-4206-A80D-C7368D4DE631}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99CBD62-C682-4B6D-9C7B-48FC04C4FB54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{09E44458-829B-43B9-9CE0-5B802523F4BA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Story ID</t>
   </si>
@@ -561,10 +561,14 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -639,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -650,7 +654,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
@@ -719,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -735,7 +741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -819,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -829,11 +835,14 @@
       <c r="C18" s="13">
         <v>2</v>
       </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -842,6 +851,9 @@
       </c>
       <c r="C19" s="13">
         <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>28</v>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99CBD62-C682-4B6D-9C7B-48FC04C4FB54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0050C-ED07-427F-A9E7-DCA757E19A98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{09E44458-829B-43B9-9CE0-5B802523F4BA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09E44458-829B-43B9-9CE0-5B802523F4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Story ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>fix burndown</t>
+  </si>
+  <si>
+    <t>Create Grid Floor</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,6 +245,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43728B19-EEC9-4943-AB4E-04266E9E30BD}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -692,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -707,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -757,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -770,7 +779,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -783,7 +792,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -796,7 +805,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -811,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -865,6 +874,26 @@
       </c>
       <c r="B20" s="12" t="s">
         <v>29</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpace - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0050C-ED07-427F-A9E7-DCA757E19A98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A26C9-5E05-4126-AAD0-70F782001C35}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09E44458-829B-43B9-9CE0-5B802523F4BA}"/>
+    <workbookView xWindow="1770" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{09E44458-829B-43B9-9CE0-5B802523F4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43728B19-EEC9-4943-AB4E-04266E9E30BD}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
